--- a/05.09/Функции для работы с датой и временем.xlsx
+++ b/05.09/Функции для работы с датой и временем.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\335\05.09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA072EC6-F7DE-4CAE-AEC3-069D5235CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29E949C-AAA6-4C3B-897B-A237AF9A04E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="843" firstSheet="2" activeTab="8" xr2:uid="{7360F319-63E4-4858-8962-F1129956DF65}"/>
+    <workbookView xWindow="840" yWindow="90" windowWidth="17330" windowHeight="10180" tabRatio="843" firstSheet="3" activeTab="6" xr2:uid="{7360F319-63E4-4858-8962-F1129956DF65}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Расчет лет и месяцев" sheetId="6" r:id="rId6"/>
     <sheet name="Доля года" sheetId="7" r:id="rId7"/>
     <sheet name="Последний день февраля" sheetId="8" r:id="rId8"/>
-    <sheet name="Лист9" sheetId="9" r:id="rId9"/>
+    <sheet name="Номер квартала" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,8 +106,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,28 +169,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,7 +560,7 @@
     <row r="2" spans="3:4" x14ac:dyDescent="0.7">
       <c r="D2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45174</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.7">
@@ -580,7 +577,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f ca="1">DATEDIF(C4, TODAY(), "d")&amp;" дней"</f>
-        <v>105 дней</v>
+        <v>106 дней</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.7">
@@ -589,7 +586,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ref="D5:D8" ca="1" si="0">DATEDIF(C5, TODAY(), "d")&amp;" дней"</f>
-        <v>448 дней</v>
+        <v>449 дней</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.7">
@@ -598,7 +595,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>108 дней</v>
+        <v>109 дней</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.7">
@@ -607,7 +604,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>231 дней</v>
+        <v>232 дней</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.7">
@@ -616,7 +613,7 @@
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>304 дней</v>
+        <v>305 дней</v>
       </c>
     </row>
   </sheetData>
@@ -640,13 +637,13 @@
     <row r="2" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C2" t="str">
         <f ca="1">"Сегодня "&amp;TEXT(TODAY(),"ДДДД, ДД ММММ ГГГГ")</f>
-        <v>Сегодня вторник, 05 Сентябрь 2023</v>
+        <v>Сегодня среда, 06 Сентябрь 2023</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C4" t="str">
         <f ca="1">"Сегодня "&amp;TEXT(TODAY(),"ДД ММММ, ГГГГ")</f>
-        <v>Сегодня 05 Сентябрь, 2023</v>
+        <v>Сегодня 06 Сентябрь, 2023</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.7">
@@ -703,11 +700,11 @@
       </c>
       <c r="C5" s="4">
         <f ca="1">TODAY()</f>
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">NETWORKDAYS(B5,C5)</f>
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +729,7 @@
     <row r="3" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C3" s="1">
         <f ca="1">TODAY()</f>
-        <v>45174</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.7">
@@ -759,7 +756,7 @@
       </c>
       <c r="C7">
         <f ca="1">DAY(C3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.7">
@@ -768,7 +765,7 @@
       </c>
       <c r="C8">
         <f ca="1">WEEKDAY(C3,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.7">
@@ -817,7 +814,7 @@
       </c>
       <c r="B4" s="1">
         <f ca="1">TODAY()</f>
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">DATEDIF(A4,B4,"Y")&amp;" лет. "&amp;DATEDIF(A4,B4,"YM")&amp;" месяцев."</f>
@@ -830,7 +827,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:B7" ca="1" si="0">TODAY()</f>
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:C7" ca="1" si="1">DATEDIF(A5,B5,"Y")&amp;" лет. "&amp;DATEDIF(A5,B5,"YM")&amp;" месяцев."</f>
@@ -843,11 +840,11 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23 лет. 7 месяцев.</v>
+        <v>23 лет. 8 месяцев.</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.7">
@@ -856,7 +853,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -872,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F7711-324D-42CD-BD36-E6084916D565}">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -911,7 +908,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">TODAY()</f>
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" s="12">
         <v>1000000</v>
@@ -928,11 +925,11 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B7" s="11">
         <f ca="1">YEARFRAC(B3,C3)</f>
-        <v>0.67777777777777781</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="C7" s="11">
         <f ca="1">1-YEARFRAC(B3,C3)</f>
-        <v>0.32222222222222219</v>
+        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.7">
@@ -943,7 +940,7 @@
     <row r="11" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B11" s="12">
         <f ca="1">D3*B7</f>
-        <v>677777.77777777787</v>
+        <v>680555.55555555562</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC53D184-7BA3-41D9-9EE6-D2FB06E1E2E9}">
   <dimension ref="B2:C70"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1594,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E14795A-A892-40E4-B691-6A4A4DBA6DEE}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1688,7 +1685,7 @@
       <c r="B11" s="9">
         <v>44665</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1697,7 +1694,7 @@
       <c r="B12" s="9">
         <v>44464</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
